--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/123/incorrect_predictions_123.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Camera error</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,46 +512,46 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check</t>
+          <t>Minimum RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Return to home immediately</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Minimum RTH Altitude is 30m</t>
+          <t>Compass Stuck</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Compass Stuck</t>
+          <t>Restart Aircraft</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Restart Aircraft</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft</t>
+          <t>Compass Stuck Restart</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -662,21 +662,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -712,21 +712,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RTH Altitude is nnn</t>
+          <t>No GPS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>No GPS</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,42 +771,42 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>No GPS Return to Home failed</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed</t>
+          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>14-27</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/123/incorrect_predictions_123.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Camera error</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,46 +512,46 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Minimum RTH Altitude is 30m</t>
+          <t>Camera error AI Spot-Check</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Return to home immediately</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Compass Stuck</t>
+          <t>Minimum RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Restart Aircraft</t>
+          <t>Compass Stuck</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>Restart Aircraft</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart</t>
+          <t>Compass Stuck Restart Aircraft</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -662,21 +662,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RTH Altitude is nnn</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -712,21 +712,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No GPS</t>
+          <t>RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>No GPS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,42 +771,42 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>No GPS Return to Home failed</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14-27</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
